--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/56_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/56_11R22.xlsx
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04474526330661761</v>
+        <v>0.00460150984389922</v>
       </c>
       <c r="E2">
-        <v>0.04679875640740945</v>
+        <v>0.197567501277408</v>
       </c>
       <c r="F2">
-        <v>0.1858191962305922</v>
+        <v>0.09193016277786409</v>
       </c>
       <c r="G2">
-        <v>0.1125177710422336</v>
+        <v>0.2265049118708638</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -686,22 +686,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009307046095662573</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.02302389220976572</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.04649264580020804</v>
+        <v>0.01240930132461876</v>
       </c>
       <c r="N2">
-        <v>0.02159071061666533</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2041287989386799</v>
+        <v>0.2338168865161284</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.03619464797014928</v>
+        <v>0.04519958669367747</v>
       </c>
       <c r="S2">
-        <v>0.04597225083647536</v>
+        <v>0.008806959620541847</v>
       </c>
       <c r="T2">
-        <v>0.09749425458540892</v>
+        <v>0.1069874680807854</v>
       </c>
       <c r="U2">
-        <v>0.01819897956677105</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.004388487241468876</v>
+        <v>0.001715572894883189</v>
       </c>
       <c r="W2">
-        <v>0.002808437144182921</v>
+        <v>0.007509343355775448</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.005604237759174301</v>
+        <v>0.002107407687471134</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.03452656172554074</v>
+        <v>0.007906387291597462</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0507951089146542</v>
+        <v>0.01432032345533045</v>
       </c>
       <c r="AG2">
-        <v>0.009540963454129889</v>
+        <v>0.03861667730915504</v>
       </c>
       <c r="AH2">
-        <v>5.199015421018281E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08884610831446711</v>
+        <v>0.2347206819815963</v>
       </c>
       <c r="E3">
-        <v>0.02538123859597912</v>
+        <v>0.01775348158051502</v>
       </c>
       <c r="F3">
-        <v>0.1627697398449063</v>
+        <v>0.2537848785369403</v>
       </c>
       <c r="G3">
-        <v>0.09274924673759515</v>
+        <v>0.007723987860678337</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -793,46 +793,46 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03028478303538525</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02871610530597796</v>
+        <v>0.01929386182924162</v>
       </c>
       <c r="M3">
-        <v>0.04310191185983549</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.01437565964664485</v>
+        <v>0.203132720431398</v>
       </c>
       <c r="O3">
-        <v>0.2539131776173248</v>
+        <v>0.009218808154798131</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.03906814321919452</v>
       </c>
       <c r="R3">
-        <v>0.02269224746840743</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0397225361630474</v>
+        <v>0.1229460649925525</v>
       </c>
       <c r="T3">
-        <v>0.09647575750643887</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.02514709158553565</v>
       </c>
       <c r="V3">
-        <v>0.001313778459563746</v>
+        <v>0.0008332805258884836</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.01314616217771829</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.009286541994688376</v>
       </c>
       <c r="AA3">
-        <v>0.02702538586481252</v>
+        <v>0.001705312449564832</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -853,16 +853,16 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.007021641827594435</v>
+        <v>0.002257418613173687</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0339781168321098</v>
+        <v>0.03998156406651612</v>
       </c>
       <c r="AG3">
-        <v>0.03163256491990968</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -882,64 +882,64 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2616502453699902</v>
+        <v>0.1464825871873487</v>
       </c>
       <c r="E4">
-        <v>0.006604330012431536</v>
+        <v>0.003417688774752119</v>
       </c>
       <c r="F4">
-        <v>0.2874220780238156</v>
+        <v>0.2197102069324823</v>
       </c>
       <c r="G4">
-        <v>0.01308147622289825</v>
+        <v>0.0815054130067346</v>
       </c>
       <c r="H4">
-        <v>0.00441175496244287</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.006930072086128379</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0006410216246388335</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05149651867366712</v>
+        <v>0.01727195693870194</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1279079413931333</v>
+        <v>0.07901521148245648</v>
       </c>
       <c r="O4">
-        <v>0.008263821974867849</v>
+        <v>0.2299794800280541</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.02229611864536993</v>
+        <v>0.001608437651282653</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.02866996579689954</v>
       </c>
       <c r="S4">
-        <v>0.1025050263053454</v>
+        <v>0.07888345626158667</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.02936019947729642</v>
       </c>
       <c r="U4">
-        <v>0.0217903123731341</v>
+        <v>0.02474988074040379</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.01076317294124589</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -948,28 +948,28 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01733417283156081</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.02723196212541854</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.004350476999973668</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01860537790183923</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.04535027622340158</v>
+        <v>0.01017120368541603</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.0105381553452813</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.226287662041849</v>
+        <v>0.04136155985493282</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.119073010363214</v>
       </c>
       <c r="F5">
-        <v>0.1748442556992893</v>
+        <v>0.09606335881176828</v>
       </c>
       <c r="G5">
-        <v>0.02632773609184789</v>
+        <v>0.2167005074748206</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1007,58 +1007,58 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02316078329112299</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07571771768274636</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.005393393348952774</v>
+        <v>0.002849910983474845</v>
       </c>
       <c r="N5">
-        <v>0.1126443933341342</v>
+        <v>0.02670491536156243</v>
       </c>
       <c r="O5">
-        <v>0.09407710142400329</v>
+        <v>0.2516380492407778</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.00421551244140142</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0635221881663382</v>
       </c>
       <c r="S5">
-        <v>0.103172248246469</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.03207822532985424</v>
+        <v>0.09445670182645965</v>
       </c>
       <c r="U5">
-        <v>0.02749791974501179</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.009181942114532819</v>
       </c>
       <c r="W5">
-        <v>0.004611587075943744</v>
+        <v>0.009103606194469267</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0006621618913341861</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.007446146702510453</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.006028214550166459</v>
+        <v>0.02584269201971384</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1067,16 +1067,16 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01038565235006716</v>
+        <v>0.01255155708508658</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.001446919430834692</v>
       </c>
       <c r="AF5">
-        <v>0.06611145064463025</v>
+        <v>0.003808286855323851</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.0250326323253563</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005718516937492077</v>
+        <v>0.1190286860351193</v>
       </c>
       <c r="E6">
-        <v>0.1260239386286452</v>
+        <v>0.01356340302915462</v>
       </c>
       <c r="F6">
-        <v>0.09703236053234364</v>
+        <v>0.3181164445349677</v>
       </c>
       <c r="G6">
-        <v>0.2516959581816063</v>
+        <v>0.1081269726034354</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002104875371469279</v>
       </c>
       <c r="I6">
-        <v>0.002870632600202734</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1120,40 +1120,40 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.003723239759171308</v>
+        <v>0.01189105778904224</v>
       </c>
       <c r="M6">
-        <v>0.03697724671061999</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1203942921770142</v>
       </c>
       <c r="O6">
-        <v>0.1984003352004571</v>
+        <v>0.06678931780949468</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.0006395924502363558</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.02113995872315821</v>
       </c>
       <c r="R6">
-        <v>0.03550343160022515</v>
+        <v>0.01705616612341561</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.07589843396766391</v>
       </c>
       <c r="T6">
-        <v>0.1232181012457643</v>
+        <v>0.009195406541181157</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.03582624253277406</v>
       </c>
       <c r="V6">
-        <v>0.01316348150469672</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.013342745229312</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1165,25 +1165,25 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01766478596091157</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.005941462957936017</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01415939195377156</v>
+        <v>0.03291236372761918</v>
       </c>
       <c r="AE6">
-        <v>0.007975973097530195</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.02082942988389696</v>
+        <v>0.03397404135494221</v>
       </c>
       <c r="AG6">
-        <v>0.03910171324472909</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1323,100 +1323,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04474526330661761</v>
+        <v>0.00460150984389922</v>
       </c>
       <c r="E2">
-        <v>0.09154401971402706</v>
+        <v>0.2021690111213073</v>
       </c>
       <c r="F2">
-        <v>0.2773632159446193</v>
+        <v>0.2940991738991714</v>
       </c>
       <c r="G2">
-        <v>0.3898809869868529</v>
+        <v>0.5206040857700353</v>
       </c>
       <c r="H2">
-        <v>0.3898809869868529</v>
+        <v>0.5206040857700353</v>
       </c>
       <c r="I2">
-        <v>0.3898809869868529</v>
+        <v>0.5206040857700353</v>
       </c>
       <c r="J2">
-        <v>0.3991880330825154</v>
+        <v>0.5206040857700353</v>
       </c>
       <c r="K2">
-        <v>0.3991880330825154</v>
+        <v>0.5206040857700353</v>
       </c>
       <c r="L2">
-        <v>0.4222119252922811</v>
+        <v>0.5206040857700353</v>
       </c>
       <c r="M2">
-        <v>0.4687045710924892</v>
+        <v>0.5330133870946541</v>
       </c>
       <c r="N2">
-        <v>0.4902952817091545</v>
+        <v>0.5330133870946541</v>
       </c>
       <c r="O2">
-        <v>0.6944240806478343</v>
+        <v>0.7668302736107824</v>
       </c>
       <c r="P2">
-        <v>0.6944240806478343</v>
+        <v>0.7668302736107824</v>
       </c>
       <c r="Q2">
-        <v>0.6944240806478343</v>
+        <v>0.7668302736107824</v>
       </c>
       <c r="R2">
-        <v>0.7306187286179836</v>
+        <v>0.8120298603044599</v>
       </c>
       <c r="S2">
-        <v>0.776590979454459</v>
+        <v>0.8208368199250018</v>
       </c>
       <c r="T2">
-        <v>0.8740852340398679</v>
+        <v>0.9278242880057872</v>
       </c>
       <c r="U2">
-        <v>0.892284213606639</v>
+        <v>0.9278242880057872</v>
       </c>
       <c r="V2">
-        <v>0.8966727008481079</v>
+        <v>0.9295398609006704</v>
       </c>
       <c r="W2">
-        <v>0.8994811379922908</v>
+        <v>0.9370492042564459</v>
       </c>
       <c r="X2">
-        <v>0.8994811379922908</v>
+        <v>0.9370492042564459</v>
       </c>
       <c r="Y2">
-        <v>0.8994811379922908</v>
+        <v>0.9370492042564459</v>
       </c>
       <c r="Z2">
-        <v>0.8994811379922908</v>
+        <v>0.9370492042564459</v>
       </c>
       <c r="AA2">
-        <v>0.9050853757514651</v>
+        <v>0.939156611943917</v>
       </c>
       <c r="AB2">
-        <v>0.9050853757514651</v>
+        <v>0.939156611943917</v>
       </c>
       <c r="AC2">
-        <v>0.9050853757514651</v>
+        <v>0.939156611943917</v>
       </c>
       <c r="AD2">
-        <v>0.9396119374770058</v>
+        <v>0.9470629992355144</v>
       </c>
       <c r="AE2">
-        <v>0.9396119374770058</v>
+        <v>0.9470629992355144</v>
       </c>
       <c r="AF2">
-        <v>0.99040704639166</v>
+        <v>0.9613833226908448</v>
       </c>
       <c r="AG2">
-        <v>0.9999480098457899</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1430,91 +1430,91 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08884610831446711</v>
+        <v>0.2347206819815963</v>
       </c>
       <c r="E3">
-        <v>0.1142273469104462</v>
+        <v>0.2524741635621113</v>
       </c>
       <c r="F3">
-        <v>0.2769970867553525</v>
+        <v>0.5062590420990516</v>
       </c>
       <c r="G3">
-        <v>0.3697463334929477</v>
+        <v>0.5139830299597299</v>
       </c>
       <c r="H3">
-        <v>0.3697463334929477</v>
+        <v>0.5139830299597299</v>
       </c>
       <c r="I3">
-        <v>0.3697463334929477</v>
+        <v>0.5139830299597299</v>
       </c>
       <c r="J3">
-        <v>0.4000311165283329</v>
+        <v>0.5139830299597299</v>
       </c>
       <c r="K3">
-        <v>0.4000311165283329</v>
+        <v>0.5139830299597299</v>
       </c>
       <c r="L3">
-        <v>0.4287472218343109</v>
+        <v>0.5332768917889715</v>
       </c>
       <c r="M3">
-        <v>0.4718491336941463</v>
+        <v>0.5332768917889715</v>
       </c>
       <c r="N3">
-        <v>0.4862247933407912</v>
+        <v>0.7364096122203696</v>
       </c>
       <c r="O3">
-        <v>0.740137970958116</v>
+        <v>0.7456284203751677</v>
       </c>
       <c r="P3">
-        <v>0.740137970958116</v>
+        <v>0.7456284203751677</v>
       </c>
       <c r="Q3">
-        <v>0.740137970958116</v>
+        <v>0.7846965635943622</v>
       </c>
       <c r="R3">
-        <v>0.7628302184265234</v>
+        <v>0.7846965635943622</v>
       </c>
       <c r="S3">
-        <v>0.8025527545895709</v>
+        <v>0.9076426285869147</v>
       </c>
       <c r="T3">
-        <v>0.8990285120960098</v>
+        <v>0.9076426285869147</v>
       </c>
       <c r="U3">
-        <v>0.8990285120960098</v>
+        <v>0.9327897201724503</v>
       </c>
       <c r="V3">
-        <v>0.9003422905555735</v>
+        <v>0.9336230006983388</v>
       </c>
       <c r="W3">
-        <v>0.9003422905555735</v>
+        <v>0.9467691628760571</v>
       </c>
       <c r="X3">
-        <v>0.9003422905555735</v>
+        <v>0.9467691628760571</v>
       </c>
       <c r="Y3">
-        <v>0.9003422905555735</v>
+        <v>0.9467691628760571</v>
       </c>
       <c r="Z3">
-        <v>0.9003422905555735</v>
+        <v>0.9560557048707454</v>
       </c>
       <c r="AA3">
-        <v>0.927367676420386</v>
+        <v>0.9577610173203103</v>
       </c>
       <c r="AB3">
-        <v>0.927367676420386</v>
+        <v>0.9577610173203103</v>
       </c>
       <c r="AC3">
-        <v>0.927367676420386</v>
+        <v>0.9577610173203103</v>
       </c>
       <c r="AD3">
-        <v>0.9343893182479804</v>
+        <v>0.9600184359334839</v>
       </c>
       <c r="AE3">
-        <v>0.9343893182479804</v>
+        <v>0.9600184359334839</v>
       </c>
       <c r="AF3">
-        <v>0.9683674350800903</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2616502453699902</v>
+        <v>0.1464825871873487</v>
       </c>
       <c r="E4">
-        <v>0.2682545753824218</v>
+        <v>0.1499002759621008</v>
       </c>
       <c r="F4">
-        <v>0.5556766534062374</v>
+        <v>0.3696104828945831</v>
       </c>
       <c r="G4">
-        <v>0.5687581296291356</v>
+        <v>0.4511158959013177</v>
       </c>
       <c r="H4">
-        <v>0.5731698845915785</v>
+        <v>0.4511158959013177</v>
       </c>
       <c r="I4">
-        <v>0.5800999566777069</v>
+        <v>0.4511158959013177</v>
       </c>
       <c r="J4">
-        <v>0.5800999566777069</v>
+        <v>0.4517569175259566</v>
       </c>
       <c r="K4">
-        <v>0.5800999566777069</v>
+        <v>0.4517569175259566</v>
       </c>
       <c r="L4">
-        <v>0.631596475351374</v>
+        <v>0.4690288744646585</v>
       </c>
       <c r="M4">
-        <v>0.631596475351374</v>
+        <v>0.4690288744646585</v>
       </c>
       <c r="N4">
-        <v>0.7595044167445073</v>
+        <v>0.548044085947115</v>
       </c>
       <c r="O4">
-        <v>0.7677682387193752</v>
+        <v>0.7780235659751691</v>
       </c>
       <c r="P4">
-        <v>0.7677682387193752</v>
+        <v>0.7780235659751691</v>
       </c>
       <c r="Q4">
-        <v>0.7900643573647451</v>
+        <v>0.7796320036264517</v>
       </c>
       <c r="R4">
-        <v>0.7900643573647451</v>
+        <v>0.8083019694233512</v>
       </c>
       <c r="S4">
-        <v>0.8925693836700905</v>
+        <v>0.8871854256849379</v>
       </c>
       <c r="T4">
-        <v>0.8925693836700905</v>
+        <v>0.9165456251622343</v>
       </c>
       <c r="U4">
-        <v>0.9143596960432246</v>
+        <v>0.941295505902638</v>
       </c>
       <c r="V4">
-        <v>0.9143596960432246</v>
+        <v>0.941295505902638</v>
       </c>
       <c r="W4">
-        <v>0.9143596960432246</v>
+        <v>0.9520586788438838</v>
       </c>
       <c r="X4">
-        <v>0.9143596960432246</v>
+        <v>0.9520586788438838</v>
       </c>
       <c r="Y4">
-        <v>0.9143596960432246</v>
+        <v>0.9520586788438838</v>
       </c>
       <c r="Z4">
-        <v>0.9316938688747854</v>
+        <v>0.9520586788438838</v>
       </c>
       <c r="AA4">
-        <v>0.9316938688747854</v>
+        <v>0.9792906409693024</v>
       </c>
       <c r="AB4">
-        <v>0.9316938688747854</v>
+        <v>0.9792906409693024</v>
       </c>
       <c r="AC4">
-        <v>0.9360443458747592</v>
+        <v>0.9792906409693024</v>
       </c>
       <c r="AD4">
-        <v>0.9546497237765984</v>
+        <v>0.9792906409693024</v>
       </c>
       <c r="AE4">
-        <v>0.9546497237765984</v>
+        <v>0.9792906409693024</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9894618446547184</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,91 +1644,91 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.226287662041849</v>
+        <v>0.04136155985493282</v>
       </c>
       <c r="E5">
-        <v>0.226287662041849</v>
+        <v>0.1604345702181468</v>
       </c>
       <c r="F5">
-        <v>0.4011319177411383</v>
+        <v>0.2564979290299151</v>
       </c>
       <c r="G5">
-        <v>0.4274596538329862</v>
+        <v>0.4731984365047356</v>
       </c>
       <c r="H5">
-        <v>0.4274596538329862</v>
+        <v>0.4731984365047356</v>
       </c>
       <c r="I5">
-        <v>0.4274596538329862</v>
+        <v>0.4731984365047356</v>
       </c>
       <c r="J5">
-        <v>0.4506204371241092</v>
+        <v>0.4731984365047356</v>
       </c>
       <c r="K5">
-        <v>0.4506204371241092</v>
+        <v>0.4731984365047356</v>
       </c>
       <c r="L5">
-        <v>0.5263381548068555</v>
+        <v>0.4731984365047356</v>
       </c>
       <c r="M5">
-        <v>0.5317315481558083</v>
+        <v>0.4760483474882105</v>
       </c>
       <c r="N5">
-        <v>0.6443759414899424</v>
+        <v>0.502753262849773</v>
       </c>
       <c r="O5">
-        <v>0.7384530429139456</v>
+        <v>0.7543913120905508</v>
       </c>
       <c r="P5">
-        <v>0.7384530429139456</v>
+        <v>0.7543913120905508</v>
       </c>
       <c r="Q5">
-        <v>0.742668555355347</v>
+        <v>0.7543913120905508</v>
       </c>
       <c r="R5">
-        <v>0.742668555355347</v>
+        <v>0.8179135002568889</v>
       </c>
       <c r="S5">
-        <v>0.845840803601816</v>
+        <v>0.8179135002568889</v>
       </c>
       <c r="T5">
-        <v>0.8779190289316703</v>
+        <v>0.9123702020833486</v>
       </c>
       <c r="U5">
-        <v>0.9054169486766821</v>
+        <v>0.9123702020833486</v>
       </c>
       <c r="V5">
-        <v>0.9054169486766821</v>
+        <v>0.9215521441978815</v>
       </c>
       <c r="W5">
-        <v>0.9100285357526259</v>
+        <v>0.9306557503923507</v>
       </c>
       <c r="X5">
-        <v>0.9100285357526259</v>
+        <v>0.9313179122836849</v>
       </c>
       <c r="Y5">
-        <v>0.9100285357526259</v>
+        <v>0.9313179122836849</v>
       </c>
       <c r="Z5">
-        <v>0.9174746824551363</v>
+        <v>0.9313179122836849</v>
       </c>
       <c r="AA5">
-        <v>0.9235028970053027</v>
+        <v>0.9571606043033987</v>
       </c>
       <c r="AB5">
-        <v>0.9235028970053027</v>
+        <v>0.9571606043033987</v>
       </c>
       <c r="AC5">
-        <v>0.9235028970053027</v>
+        <v>0.9571606043033987</v>
       </c>
       <c r="AD5">
-        <v>0.9338885493553699</v>
+        <v>0.9697121613884853</v>
       </c>
       <c r="AE5">
-        <v>0.9338885493553699</v>
+        <v>0.9711590808193199</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9749673676746438</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -1751,91 +1751,91 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005718516937492077</v>
+        <v>0.1190286860351193</v>
       </c>
       <c r="E6">
-        <v>0.1317424555661373</v>
+        <v>0.1325920890642739</v>
       </c>
       <c r="F6">
-        <v>0.2287748160984809</v>
+        <v>0.4507085335992416</v>
       </c>
       <c r="G6">
-        <v>0.4804707742800872</v>
+        <v>0.558835506202677</v>
       </c>
       <c r="H6">
-        <v>0.4804707742800872</v>
+        <v>0.5609403815741463</v>
       </c>
       <c r="I6">
-        <v>0.48334140688029</v>
+        <v>0.5609403815741463</v>
       </c>
       <c r="J6">
-        <v>0.48334140688029</v>
+        <v>0.5609403815741463</v>
       </c>
       <c r="K6">
-        <v>0.48334140688029</v>
+        <v>0.5609403815741463</v>
       </c>
       <c r="L6">
-        <v>0.4870646466394613</v>
+        <v>0.5728314393631885</v>
       </c>
       <c r="M6">
-        <v>0.5240418933500813</v>
+        <v>0.5728314393631885</v>
       </c>
       <c r="N6">
-        <v>0.5240418933500813</v>
+        <v>0.6932257315402026</v>
       </c>
       <c r="O6">
-        <v>0.7224422285505384</v>
+        <v>0.7600150493496973</v>
       </c>
       <c r="P6">
-        <v>0.7224422285505384</v>
+        <v>0.7606546417999337</v>
       </c>
       <c r="Q6">
-        <v>0.7224422285505384</v>
+        <v>0.7817946005230919</v>
       </c>
       <c r="R6">
-        <v>0.7579456601507636</v>
+        <v>0.7988507666465076</v>
       </c>
       <c r="S6">
-        <v>0.7579456601507636</v>
+        <v>0.8747492006141715</v>
       </c>
       <c r="T6">
-        <v>0.881163761396528</v>
+        <v>0.8839446071553526</v>
       </c>
       <c r="U6">
-        <v>0.881163761396528</v>
+        <v>0.9197708496881267</v>
       </c>
       <c r="V6">
-        <v>0.8943272429012247</v>
+        <v>0.9197708496881267</v>
       </c>
       <c r="W6">
-        <v>0.8943272429012247</v>
+        <v>0.9331135949174387</v>
       </c>
       <c r="X6">
-        <v>0.8943272429012247</v>
+        <v>0.9331135949174387</v>
       </c>
       <c r="Y6">
-        <v>0.8943272429012247</v>
+        <v>0.9331135949174387</v>
       </c>
       <c r="Z6">
-        <v>0.8943272429012247</v>
+        <v>0.9331135949174387</v>
       </c>
       <c r="AA6">
-        <v>0.9119920288621363</v>
+        <v>0.9331135949174387</v>
       </c>
       <c r="AB6">
-        <v>0.9119920288621363</v>
+        <v>0.9331135949174387</v>
       </c>
       <c r="AC6">
-        <v>0.9179334918200723</v>
+        <v>0.9331135949174387</v>
       </c>
       <c r="AD6">
-        <v>0.9320928837738439</v>
+        <v>0.9660259586450579</v>
       </c>
       <c r="AE6">
-        <v>0.9400688568713741</v>
+        <v>0.9660259586450579</v>
       </c>
       <c r="AF6">
-        <v>0.960898286755271</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -1912,16 +1912,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6944240806478343</v>
+        <v>0.5206040857700353</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -1953,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.740137970958116</v>
+        <v>0.5062590420990516</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -1994,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5556766534062374</v>
+        <v>0.548044085947115</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -2032,19 +2032,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.502753262849773</v>
+      </c>
+      <c r="G5">
         <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5263381548068555</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -2073,19 +2073,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5240418933500813</v>
+        <v>0.558835506202677</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -2171,16 +2171,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7306187286179836</v>
+        <v>0.7668302736107824</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -2212,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.740137970958116</v>
+        <v>0.7364096122203696</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.7780235659751691</v>
+      </c>
+      <c r="G4">
         <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7595044167445073</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -2291,7 +2291,7 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7384530429139456</v>
+        <v>0.7543913120905508</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -2332,7 +2332,7 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -2341,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7224422285505384</v>
+        <v>0.7600150493496973</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -2430,16 +2430,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8740852340398679</v>
+        <v>0.8120298603044599</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8025527545895709</v>
+        <v>0.9076426285869147</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8925693836700905</v>
+        <v>0.8083019694233512</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -2550,19 +2550,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.845840803601816</v>
+        <v>0.8179135002568889</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -2591,16 +2591,16 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.881163761396528</v>
+        <v>0.8747492006141715</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2689,16 +2689,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9050853757514651</v>
+        <v>0.9278242880057872</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -2730,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9003422905555735</v>
+        <v>0.9076426285869147</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9143596960432246</v>
+        <v>0.9165456251622343</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -2809,19 +2809,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9054169486766821</v>
+        <v>0.9123702020833486</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -2850,19 +2850,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9119920288621363</v>
+        <v>0.9197708496881267</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>56</v>
